--- a/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T11:45:49+00:00</t>
+    <t>2023-10-17T18:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T18:26:26+00:00</t>
+    <t>2023-10-18T17:01:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:01:58+00:00</t>
+    <t>2023-10-19T13:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T13:24:15+00:00</t>
+    <t>2023-10-19T14:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:31:02+00:00</t>
+    <t>2023-10-19T14:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>IC-Cas-1</t>
-  </si>
-  <si>
-    <t>IC-Cas 1 (DM)</t>
   </si>
   <si>
     <t>REG536</t>
@@ -459,7 +453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,18 +521,6 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-nouveaux-exemples/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:56:07+00:00</t>
+    <t>2023-10-19T15:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
